--- a/TODO-List-of-20-labs/Databases.xlsx
+++ b/TODO-List-of-20-labs/Databases.xlsx
@@ -88,14 +88,14 @@
     <t>CSE07</t>
   </si>
   <si>
-    <t>This lab is under progress. Link of the lab is not working.</t>
-  </si>
-  <si>
     <t xml:space="preserve">NO
 </t>
   </si>
   <si>
     <t>Vikram Pudi Email ID :vikram@iiit.ac.in</t>
+  </si>
+  <si>
+    <t>Html, Javascript</t>
   </si>
 </sst>
 </file>
@@ -228,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -265,6 +265,7 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -569,7 +570,7 @@
   <dimension ref="A1:AA11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="F2" sqref="F2:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -579,6 +580,7 @@
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
     <col min="4" max="4" width="12.140625" customWidth="1"/>
     <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
     <col min="9" max="9" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -631,7 +633,7 @@
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
     </row>
-    <row r="2" spans="1:27" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>5</v>
       </c>
@@ -647,23 +649,23 @@
       <c r="E2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>24</v>
+      <c r="F2" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>26</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -673,19 +675,19 @@
       <c r="E3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>24</v>
+      <c r="F3" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
     </row>
-    <row r="4" spans="1:27" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -695,19 +697,19 @@
       <c r="E4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>24</v>
+      <c r="F4" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
     </row>
-    <row r="5" spans="1:27" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -717,19 +719,19 @@
       <c r="E5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>24</v>
+      <c r="F5" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
     </row>
-    <row r="6" spans="1:27" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -739,19 +741,19 @@
       <c r="E6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>24</v>
+      <c r="F6" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="1:27" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -761,19 +763,19 @@
       <c r="E7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>24</v>
+      <c r="F7" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
     </row>
-    <row r="8" spans="1:27" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -783,19 +785,19 @@
       <c r="E8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>24</v>
+      <c r="F8" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>11</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
     </row>
-    <row r="9" spans="1:27" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -805,19 +807,19 @@
       <c r="E9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>24</v>
+      <c r="F9" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>11</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
     </row>
-    <row r="10" spans="1:27" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -827,19 +829,19 @@
       <c r="E10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>24</v>
+      <c r="F10" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>11</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
     </row>
-    <row r="11" spans="1:27" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -849,19 +851,20 @@
       <c r="E11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>24</v>
+      <c r="F11" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>11</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>